--- a/push to traveloka corptech/Traveloka_DataAutomation_Portal_PelitaAir/Data/Config.xlsx
+++ b/push to traveloka corptech/Traveloka_DataAutomation_Portal_PelitaAir/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\UiPath\DataAutomation\Traveloka_DataAutomation_Portal_PelitaAir\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21319E1F-7CD9-4EED-A977-6A523D48225F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8F0AC3-768D-470C-8173-E036E565ABCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -186,55 +186,55 @@
     <t>RPA_Moon_SenderName</t>
   </si>
   <si>
-    <t>[Dev] RPA_Moon_UploadBucket</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathMasterFolder</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathSaKey</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathMailTemplate</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathDownloadChrome</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_DialogDownloadChrome</t>
-  </si>
-  <si>
     <t>RPA_Moon_Cred_Gmail</t>
   </si>
   <si>
     <t>Pelita Air</t>
   </si>
   <si>
-    <t>[Dev] RPA_Moon_SheetIdConfig_Transport</t>
+    <t>RPA_Moon_UploadBucket</t>
+  </si>
+  <si>
+    <t>RPA_Moon_PathMasterFolder</t>
+  </si>
+  <si>
+    <t>RPA_Moon_PathSaKey</t>
+  </si>
+  <si>
+    <t>RPA_Moon_PathMailTemplate</t>
+  </si>
+  <si>
+    <t>RPA_Moon_PathDownloadChrome</t>
+  </si>
+  <si>
+    <t>RPA_Moon_DialogDownloadChrome</t>
+  </si>
+  <si>
+    <t>RPA_Moon_SheetIdConfig_Transport</t>
+  </si>
+  <si>
+    <t>Captcha_SiteKey</t>
+  </si>
+  <si>
+    <t>Captcha_RuleId</t>
+  </si>
+  <si>
+    <t>RPA_Moon_CCaptcha_RuleId</t>
   </si>
   <si>
     <t>RPA099_PelitaAir_Captcha_SiteKey</t>
   </si>
   <si>
-    <t>Captcha_SiteKey</t>
-  </si>
-  <si>
-    <t>Captcha_RuleId</t>
-  </si>
-  <si>
-    <t>RPA_Moon_CCaptcha_RuleId</t>
+    <t>PathCaptchaHandler</t>
+  </si>
+  <si>
+    <t>RPA_Moon_PathCaptchaHandler</t>
   </si>
   <si>
     <t>CaptchaProcess</t>
   </si>
   <si>
     <t>Traveloka_CaptchaHandler</t>
-  </si>
-  <si>
-    <t>PathCaptchaHandler</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathCaptchaHandler</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
@@ -663,7 +663,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -684,7 +684,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -695,7 +695,7 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -708,10 +708,10 @@
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2874,14 +2874,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.42578125" customWidth="1"/>
     <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
@@ -2935,7 +2935,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -2943,7 +2943,7 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -2951,7 +2951,7 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -2959,7 +2959,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -2967,7 +2967,7 @@
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -2980,26 +2980,26 @@
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
         <v>64</v>
-      </c>
-      <c r="B10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
